--- a/data/VeriTablolari.xlsx
+++ b/data/VeriTablolari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merve/Desktop/bp/ChangePointDetection/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{325584E3-8121-2447-A04A-BCB8D50CE85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D961EAA-7EAB-AD4D-8303-C24EA3F88B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Veri</t>
   </si>
@@ -79,52 +79,55 @@
     <t>393,874,1047</t>
   </si>
   <si>
-    <t>1.İşaretleyici DN Sayısı</t>
-  </si>
-  <si>
-    <t>2.İşaretleyici DN Sayısı</t>
-  </si>
-  <si>
-    <t>3.İşaretleyici DN Sayısı</t>
-  </si>
-  <si>
-    <t>4.İşaretleyici DN Sayısı</t>
-  </si>
-  <si>
-    <t>5.İşaretleyici DN Sayısı</t>
-  </si>
-  <si>
     <t>Bitcoin</t>
   </si>
   <si>
     <t>Brent-spot.</t>
   </si>
   <si>
-    <t>childeren-per women</t>
+    <t>DN Sayısı(1)</t>
   </si>
   <si>
-    <t>co2- canada</t>
+    <t>N</t>
   </si>
   <si>
-    <t>debt -Ireland</t>
+    <t>DN Sayısı(2)</t>
   </si>
   <si>
-    <t>rail-lines</t>
+    <t>DN Sayısı(3)</t>
   </si>
   <si>
-    <t>rather-stock</t>
+    <t>DN Sayısı(5)</t>
   </si>
   <si>
-    <t>scanline-42049</t>
+    <t>DN Sayısı(4)</t>
   </si>
   <si>
-    <t>shangai-license</t>
+    <t>Children-per women</t>
   </si>
   <si>
-    <t>usd-isk</t>
+    <t>Co2- canada</t>
   </si>
   <si>
-    <t>well-log</t>
+    <t>Debt -Ireland</t>
+  </si>
+  <si>
+    <t>Rail-lines</t>
+  </si>
+  <si>
+    <t>Rather-stock</t>
+  </si>
+  <si>
+    <t>Scanline-42049</t>
+  </si>
+  <si>
+    <t>Shangai-license</t>
+  </si>
+  <si>
+    <t>Usd-isk</t>
+  </si>
+  <si>
+    <t>Well-log</t>
   </si>
 </sst>
 </file>
@@ -2161,14 +2164,15 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="7" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="7" width="20.5" customWidth="1"/>
     <col min="9" max="9" width="45.1640625" customWidth="1"/>
     <col min="10" max="12" width="36.83203125" customWidth="1"/>
     <col min="13" max="13" width="68" customWidth="1"/>
@@ -2180,22 +2184,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -2218,7 +2222,7 @@
     </row>
     <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>774</v>
@@ -2259,7 +2263,7 @@
     </row>
     <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3">
         <v>500</v>
@@ -2300,7 +2304,7 @@
     </row>
     <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>301</v>
@@ -2341,7 +2345,7 @@
     </row>
     <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>215</v>
@@ -2382,7 +2386,7 @@
     </row>
     <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3">
         <v>21</v>
@@ -2423,7 +2427,7 @@
     </row>
     <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3">
         <v>37</v>
@@ -2464,7 +2468,7 @@
     </row>
     <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3">
         <v>600</v>
@@ -2505,7 +2509,7 @@
     </row>
     <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3">
         <v>481</v>
@@ -2546,7 +2550,7 @@
     </row>
     <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3">
         <v>205</v>
@@ -2587,7 +2591,7 @@
     </row>
     <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3">
         <v>247</v>
@@ -2628,7 +2632,7 @@
     </row>
     <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3">
         <v>675</v>
